--- a/isobxr/inst/extdata/0_ISOBXR_MASTER.xlsx
+++ b/isobxr/inst/extdata/0_ISOBXR_MASTER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sz18642/OneDrive - University of Bristol/5_isobxr/tutorials/1_ABC_tutorial/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sz18642/isobxr/isobxr/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00957FD-FEB5-4445-868F-6A444C58DF9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F93F56-1952-8D4C-A50F-CCEA35CCF591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27240" yWindow="440" windowWidth="23520" windowHeight="17840" activeTab="3" xr2:uid="{3B124670-D170-8745-AEB6-3E629F1B1364}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="20440" activeTab="3" xr2:uid="{3B124670-D170-8745-AEB6-3E629F1B1364}"/>
   </bookViews>
   <sheets>
     <sheet name="CONSTANTS" sheetId="5" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="28">
-  <si>
-    <t>BOXES_ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="45">
   <si>
     <t>INFINITE</t>
   </si>
@@ -59,9 +56,6 @@
     <t>TO</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>FLUX</t>
   </si>
   <si>
@@ -71,62 +65,119 @@
     <t>a1</t>
   </si>
   <si>
-    <t>STATUS</t>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>a0</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>FINITE</t>
+  </si>
+  <si>
+    <t>Fx1_ABC_bal</t>
+  </si>
+  <si>
+    <t>Fx2_ABC_unbal</t>
+  </si>
+  <si>
+    <t>Fx3_ABC_unbal</t>
+  </si>
+  <si>
+    <t>Fx4_ABCD_bal</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>Fx5_ABCD_unbal</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>SINK</t>
+  </si>
+  <si>
+    <t>Fx6_ABC_open_bal</t>
+  </si>
+  <si>
+    <t>Fx7_ABC_open_unbal</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>BOX_ID</t>
+  </si>
+  <si>
+    <t>ELEMENT</t>
+  </si>
+  <si>
+    <t>RATIO_STANDARD</t>
   </si>
   <si>
     <t>NUMERATOR</t>
   </si>
   <si>
-    <t>ELEMENT</t>
-  </si>
-  <si>
     <t>DENOMINATOR</t>
   </si>
   <si>
-    <t>RATIO_STANDARD</t>
-  </si>
-  <si>
-    <t>Ca</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>FINITE</t>
-  </si>
-  <si>
-    <t>SOURCE</t>
-  </si>
-  <si>
-    <t>SINK</t>
-  </si>
-  <si>
-    <t>Fx3_ABC_open_bal</t>
-  </si>
-  <si>
-    <t>Fx4_ABC_open_unbal</t>
-  </si>
-  <si>
-    <t>Fx2_ABC_closed_unbal</t>
-  </si>
-  <si>
-    <t>Fx1_ABC_closed_bal</t>
-  </si>
-  <si>
-    <t>a2</t>
+    <t>MASS_UNIT</t>
+  </si>
+  <si>
+    <t>TIME_UNIT</t>
+  </si>
+  <si>
+    <t>SIZE_or_FLUX</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>sweep_coeff_FINnD</t>
+  </si>
+  <si>
+    <t>true_coeff_FINnD</t>
+  </si>
+  <si>
+    <t>fluxes_FINnD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -147,6 +198,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,10 +234,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -497,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8600CF5-13DA-F34E-9DDC-AF60C5FB5EE2}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScale="351" zoomScaleNormal="351" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="214" zoomScaleNormal="300" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -508,26 +565,34 @@
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>3.2029700000000001</v>
@@ -537,6 +602,12 @@
       </c>
       <c r="D2" s="1">
         <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -548,32 +619,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD7AA4D-2B01-7645-B4FD-945874EC496D}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="255" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D6"/>
+    <sheetView zoomScale="216" zoomScaleNormal="300" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -584,10 +655,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -598,10 +669,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -612,37 +683,45 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
@@ -669,87 +748,118 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99DD030-EE7E-E64E-A147-DBC2DF430FBA}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="139" zoomScaleNormal="300" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:H13"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
         <v>50</v>
       </c>
       <c r="F2" s="1">
         <v>50</v>
       </c>
       <c r="G2" s="1">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1">
+        <v>50</v>
+      </c>
+      <c r="I2" s="1">
         <v>55</v>
       </c>
-      <c r="H2" s="1">
+      <c r="J2" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="K2" s="1">
+        <v>65</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
         <v>50</v>
       </c>
       <c r="F3" s="1">
@@ -761,325 +871,1112 @@
       <c r="H3" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="I3" s="1">
+        <v>50</v>
+      </c>
+      <c r="J3" s="1">
+        <v>50</v>
+      </c>
+      <c r="K3" s="1">
+        <v>50</v>
+      </c>
+      <c r="L3" s="4">
+        <v>9</v>
+      </c>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>5</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
         <v>60</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F5" s="1">
         <v>60</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G5" s="1">
         <v>60</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H5" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="I5" s="1">
+        <v>60</v>
+      </c>
+      <c r="J5" s="1">
+        <v>60</v>
+      </c>
+      <c r="K5" s="1">
+        <v>60</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
         <v>40</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F8" s="1">
         <v>41</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G8" s="1">
+        <v>39</v>
+      </c>
+      <c r="H8" s="1">
         <v>40</v>
       </c>
-      <c r="H5" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="I8" s="1">
+        <v>40</v>
+      </c>
+      <c r="J8" s="1">
+        <v>40</v>
+      </c>
+      <c r="K8" s="1">
+        <v>40</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
         <v>10</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F9" s="1">
         <v>10</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G9" s="1">
         <v>10</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="K9" s="1">
+        <v>10</v>
+      </c>
+      <c r="L9" s="1">
+        <v>10</v>
+      </c>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>4</v>
+      </c>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
         <v>5</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I13" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
         <v>5</v>
       </c>
-      <c r="H8" s="1">
+      <c r="K14" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H9" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2000</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="L14" s="4">
+        <v>10</v>
+      </c>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>5</v>
+      </c>
+      <c r="K15" s="1">
+        <v>5</v>
+      </c>
+      <c r="L15" s="1">
+        <v>10</v>
+      </c>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2000</v>
+      </c>
+      <c r="L17" s="4">
+        <v>100</v>
+      </c>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2000</v>
+      </c>
+      <c r="L18" s="4">
+        <v>100</v>
+      </c>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2000</v>
+      </c>
+      <c r="L19" s="4">
+        <v>100</v>
+      </c>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2000</v>
+      </c>
+      <c r="L20" s="4">
+        <v>100</v>
+      </c>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="3">
         <v>1000000000000000</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F21" s="3">
         <v>1000000000000000</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G21" s="3">
         <v>1000000000000000</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H21" s="3">
         <v>1000000000000000</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="I21" s="3">
         <v>1000000000000000</v>
       </c>
-      <c r="F13" s="4">
+      <c r="J21" s="3">
         <v>1000000000000000</v>
       </c>
-      <c r="G13" s="4">
+      <c r="K21" s="3">
         <v>1000000000000000</v>
       </c>
-      <c r="H13" s="4">
+      <c r="L21" s="4">
         <v>1000000000000000</v>
       </c>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1000000000000000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1000000000000000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1000000000000000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1000000000000000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1000000000000000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1000000000000000</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1000000000000000</v>
+      </c>
+      <c r="L22" s="4">
+        <v>1000000000000000</v>
+      </c>
+      <c r="M22" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CB5CA2-32BF-DB49-928C-323C040D9CC2}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="206" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="300" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="13" width="18" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="I2" s="1">
+        <f>H2+0.0005</f>
+        <v>0.99949999999999994</v>
+      </c>
+      <c r="J2" s="1">
+        <f>I2+0.0005</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="K2" s="1">
+        <f>J2+0.0005</f>
+        <v>1.0004999999999999</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0.997</v>
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.99950012497916929</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1.0005001250208359</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1.0005001250208359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1.0010005001667084</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
